--- a/Template_Answer_Sheet.xlsx
+++ b/Template_Answer_Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sumathy\LVA-Batch4-Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6393743-7E29-4406-A051-F57713ABF80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E261354-60CD-4A87-8F96-410183B81017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E7990EF-66FA-4EF8-8C0A-E4175ADFF111}"/>
   </bookViews>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="3">
   <si>
     <t>Q.NO</t>
   </si>
   <si>
     <t>Answer</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73256B12-07DC-4BE1-B696-4109C56E1E1C}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,15 +417,160 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
